--- a/original/wiring diagram.xlsx
+++ b/original/wiring diagram.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Agata\magnet moving field3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>3V3</t>
   </si>
@@ -158,17 +153,29 @@
     <t>Potentiometer</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>pull up resistor on breakout board</t>
+  </si>
+  <si>
+    <t>Pulled by break board</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>A/D ch 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,26 +588,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="K32" workbookViewId="0">
+      <selection activeCell="AD52" sqref="AD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -672,17 +679,20 @@
       <c r="Y1">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -696,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -729,9 +739,10 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -764,9 +775,10 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -799,9 +811,10 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -834,9 +847,10 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -869,9 +883,10 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -904,9 +919,10 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -935,13 +951,14 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -972,9 +989,10 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1">
       <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1005,9 +1023,10 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1040,9 +1059,10 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1075,9 +1095,10 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -1110,9 +1131,10 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1145,9 +1167,10 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1180,9 +1203,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1215,9 +1239,10 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1247,12 +1272,13 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
@@ -1283,9 +1309,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1">
       <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
         <v>22</v>
@@ -1316,9 +1343,10 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1351,9 +1379,10 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -1386,9 +1415,10 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -1421,9 +1451,10 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -1456,9 +1487,10 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>18</v>
@@ -1491,9 +1523,10 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -1526,9 +1559,10 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>20</v>
@@ -1552,7 +1586,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -1561,9 +1595,10 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>21</v>
@@ -1594,9 +1629,10 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1">
       <c r="A29" s="12"/>
       <c r="B29" s="5" t="s">
         <v>22</v>
@@ -1627,9 +1663,10 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="6"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1664,9 +1701,10 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="2"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -1699,9 +1737,10 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -1734,9 +1773,10 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -1769,9 +1809,10 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -1802,9 +1843,12 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="5" t="s">
         <v>29</v>
@@ -1835,11 +1879,12 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -1874,9 +1919,10 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="2"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>6</v>
@@ -1909,9 +1955,10 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="4"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1944,9 +1991,10 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="4"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -1979,9 +2027,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="4"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -2012,9 +2061,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="4"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -2042,12 +2092,15 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="Z41" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-      <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="4"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="11"/>
       <c r="B42" s="3" t="s">
         <v>28</v>
@@ -2078,9 +2131,12 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="11"/>
       <c r="B43" s="3" t="s">
         <v>33</v>
@@ -2111,11 +2167,12 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="4" t="s">
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
         <v>34</v>
@@ -2146,9 +2203,10 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="4"/>
-    </row>
-    <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="4"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="5" t="s">
         <v>35</v>
@@ -2179,9 +2237,10 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="6"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="6"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -2216,9 +2275,10 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="2"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>39</v>
@@ -2251,9 +2311,10 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="4"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="4"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="11"/>
       <c r="B48" s="7" t="s">
         <v>40</v>
@@ -2286,9 +2347,10 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="4"/>
-    </row>
-    <row r="49" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="4"/>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" thickBot="1">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
         <v>41</v>
@@ -2321,14 +2383,15 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="6"/>
-    </row>
-    <row r="50" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="6"/>
+    </row>
+    <row r="50" spans="1:30" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>23</v>
@@ -2358,9 +2421,10 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="14"/>
       <c r="B51" s="7" t="s">
         <v>6</v>
@@ -2393,11 +2457,14 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-      <c r="AC51" s="4"/>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" thickBot="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2424,7 +2491,10 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="6"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
